--- a/routes/reviews.xlsx
+++ b/routes/reviews.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Desktop\web\bongsan\routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Desktop\Web\bongsan\bongsan_full\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -101,38 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/reviews/category1_product1_img.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/reviews/category1_product2_img.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/reviews/category1_product3_img.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/reviews/category1_product4_img.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/reviews/category2_product2_img.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/reviews/category2_product3_img.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/reviews/category2_product4_img.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/reviews/category2_product1_img.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>category3_product1_img.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,6 +154,38 @@
   </si>
   <si>
     <t>category9_product1_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category1_product1_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category1_product2_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category1_product3_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category1_product4_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category2_product2_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category2_product3_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category2_product4_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category2_product1_img.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -560,7 +560,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -568,7 +568,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -576,7 +576,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -584,7 +584,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -592,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -600,7 +600,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -608,7 +608,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -616,7 +616,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -624,7 +624,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -632,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -640,7 +640,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -648,7 +648,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -656,7 +656,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -664,7 +664,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -672,7 +672,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -680,7 +680,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -688,7 +688,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -696,7 +696,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -704,7 +704,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -712,7 +712,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/routes/reviews.xlsx
+++ b/routes/reviews.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>3단 축하화환 6만원</t>
   </si>
@@ -187,6 +187,77 @@
   <si>
     <t>category2_product1_img.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_orderer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문자1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문자2</t>
+  </si>
+  <si>
+    <t>주문자3</t>
+  </si>
+  <si>
+    <t>주문자4</t>
+  </si>
+  <si>
+    <t>주문자5</t>
+  </si>
+  <si>
+    <t>주문자6</t>
+  </si>
+  <si>
+    <t>주문자7</t>
+  </si>
+  <si>
+    <t>주문자8</t>
+  </si>
+  <si>
+    <t>주문자9</t>
+  </si>
+  <si>
+    <t>주문자10</t>
+  </si>
+  <si>
+    <t>주문자11</t>
+  </si>
+  <si>
+    <t>주문자12</t>
+  </si>
+  <si>
+    <t>주문자13</t>
+  </si>
+  <si>
+    <t>주문자14</t>
+  </si>
+  <si>
+    <t>주문자15</t>
+  </si>
+  <si>
+    <t>주문자16</t>
+  </si>
+  <si>
+    <t>주문자17</t>
+  </si>
+  <si>
+    <t>주문자18</t>
+  </si>
+  <si>
+    <t>주문자19</t>
+  </si>
+  <si>
+    <t>주문자20</t>
+  </si>
+  <si>
+    <t>주문자21</t>
+  </si>
+  <si>
+    <t>주문자22</t>
   </si>
 </sst>
 </file>
@@ -516,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -531,188 +602,257 @@
     <col min="5" max="5" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
